--- a/data/trans_camb/P19C05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.412573536819067</v>
+        <v>-3.570389896195076</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.37951486287978</v>
+        <v>-10.84580157867882</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.83969185323011</v>
+        <v>-14.11799628325835</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6461074344141573</v>
+        <v>-0.7745576000431806</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-12.85065476955747</v>
+        <v>-13.15759137097195</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.375192653268627</v>
+        <v>-7.448569597689627</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.894507144421048</v>
+        <v>-0.6393551863010559</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-11.04792398328421</v>
+        <v>-10.8240987698548</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-9.030252312670639</v>
+        <v>-9.002731515619979</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.257179708250948</v>
+        <v>5.648621377087164</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.426352073067624</v>
+        <v>-1.190826972823501</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-5.24764797053642</v>
+        <v>-5.097434262298085</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.246524043794221</v>
+        <v>7.496177219464147</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-4.114577080566056</v>
+        <v>-4.205527752329012</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5537800675672275</v>
+        <v>0.1601079081218925</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.457707186705422</v>
+        <v>5.246640616205468</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-4.619665859041342</v>
+        <v>-4.490772391243549</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-2.950238370689775</v>
+        <v>-3.111608878897345</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1489431342975663</v>
+        <v>-0.1226297822881799</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3826359855998896</v>
+        <v>-0.3754327885771607</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4746207455117342</v>
+        <v>-0.4810977982463753</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.02028108700845295</v>
+        <v>-0.02196655260976629</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4075493832919734</v>
+        <v>-0.4087283896387671</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.227246163282708</v>
+        <v>-0.2310387677922599</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03032922423297258</v>
+        <v>-0.02253288896701953</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3691337685275937</v>
+        <v>-0.3602435039294835</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2946119981157405</v>
+        <v>-0.2906182482998598</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2150534948375724</v>
+        <v>0.2328798499357435</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.05612815023752955</v>
+        <v>-0.04808218450148521</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2117074462701518</v>
+        <v>-0.2094795687102697</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2606100952215672</v>
+        <v>0.2735944657226603</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1468224844392321</v>
+        <v>-0.1456031876588116</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01940208567277063</v>
+        <v>0.003757271731595926</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2033629949483509</v>
+        <v>0.1910478475623602</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1669221370375627</v>
+        <v>-0.1632854896531792</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1062923779289863</v>
+        <v>-0.1105826496997092</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.158958482829372</v>
+        <v>1.031396081379233</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7226883500264289</v>
+        <v>-0.8494662618293816</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1134762140592176</v>
+        <v>-0.3400453922878571</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2392328922919571</v>
+        <v>-0.2954008271820733</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.182300297822551</v>
+        <v>-1.134175633675593</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.919725618777189</v>
+        <v>-1.765464707733928</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9698851620768226</v>
+        <v>1.006044798271013</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.5621198461387577</v>
+        <v>-0.3886636107290125</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.392372384207528</v>
+        <v>-0.4222742232295639</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.328297983652607</v>
+        <v>5.283439034633479</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.4262786160196</v>
+        <v>3.169551192860661</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.724399564994235</v>
+        <v>3.770048941092056</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.295416053766365</v>
+        <v>4.294802200474503</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.962584896747384</v>
+        <v>3.180869286033821</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.874710199932639</v>
+        <v>1.707360692751495</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.055770681500858</v>
+        <v>4.107150561145682</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.456314832047988</v>
+        <v>2.571259777753439</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.284555235990278</v>
+        <v>2.161170521784506</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1334301986028411</v>
+        <v>0.1149488882164601</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.08566263164181133</v>
+        <v>-0.1045871698192547</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.02416480947608161</v>
+        <v>-0.04514808223035969</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02645317051464114</v>
+        <v>-0.0303879279941669</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1300477771977932</v>
+        <v>-0.1245434052739343</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1962561672696705</v>
+        <v>-0.181037203410485</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1059659453053874</v>
+        <v>0.1172670565793593</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.06459483193380187</v>
+        <v>-0.04574569892160388</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.04554185088498815</v>
+        <v>-0.04897013850553199</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8506748294741368</v>
+        <v>0.8223904268065274</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5391823777228116</v>
+        <v>0.5001061951416769</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5831226216611618</v>
+        <v>0.5976435975402417</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5888114344477763</v>
+        <v>0.5807546624051679</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3941263353708654</v>
+        <v>0.4292716670895814</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.257898814469474</v>
+        <v>0.2324717016417132</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5400200141784864</v>
+        <v>0.5575339837371857</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3391278338471875</v>
+        <v>0.3599703478638221</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3163831241468578</v>
+        <v>0.306609716073941</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-3.077232325999248</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.457495819708333</v>
+        <v>-2.45749581970833</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.880515744806609</v>
@@ -1092,7 +1092,7 @@
         <v>-2.746463914798353</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-2.581041061198876</v>
+        <v>-2.581041061198877</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.283533273305407</v>
+        <v>-6.449452778011609</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.067741675810549</v>
+        <v>-6.832233742805403</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.977994792876407</v>
+        <v>-6.177969301224927</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.22944834802735</v>
+        <v>-6.128133238438397</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.312622948628991</v>
+        <v>-6.174350552995426</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.379014683271393</v>
+        <v>-6.181119345111532</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.839866886136155</v>
+        <v>-4.662190597555628</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.536958704706076</v>
+        <v>-5.524782420489852</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.938682608208151</v>
+        <v>-5.16115294073965</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.905668979285551</v>
+        <v>2.436981283761441</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7130355933401622</v>
+        <v>0.9233622397494081</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9909588480456242</v>
+        <v>1.056885535260502</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.77444580094603</v>
+        <v>2.096517858965627</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.269707324424922</v>
+        <v>1.443595704929575</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4637336739583072</v>
+        <v>0.4297665410583079</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.181455480939903</v>
+        <v>1.366708836935381</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.2433112102697007</v>
+        <v>0.05697684177646703</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.268686100621957</v>
+        <v>-0.2211726032608384</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.2857941021146163</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2282368494929615</v>
+        <v>-0.2282368494929612</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1973038017369697</v>
@@ -1197,7 +1197,7 @@
         <v>-0.2698037388176225</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.2535531323026282</v>
+        <v>-0.2535531323026283</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4934919999612578</v>
+        <v>-0.4834799873034155</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.535827104922631</v>
+        <v>-0.5390051544970766</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4569084920244239</v>
+        <v>-0.4460331641711656</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5233191187067203</v>
+        <v>-0.5151326453156043</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5367207913210787</v>
+        <v>-0.5271839066748868</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5161040551996634</v>
+        <v>-0.5009073441062863</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4067106752183494</v>
+        <v>-0.4067064253377577</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4793403262537233</v>
+        <v>-0.4576705802796813</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4140930051128009</v>
+        <v>-0.4271005069060401</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2293273666945454</v>
+        <v>0.2717327558710448</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.08853554922411969</v>
+        <v>0.1157899714961723</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1421392293891556</v>
+        <v>0.1447896695620623</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2394819366998812</v>
+        <v>0.2603063447265725</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1773620984471866</v>
+        <v>0.2019730159170921</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06984689737819584</v>
+        <v>0.08320400910991034</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.144625464516205</v>
+        <v>0.1695178368795401</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.009449341892643411</v>
+        <v>0.01002949377921951</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.02944381208790083</v>
+        <v>-0.02346386225958792</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-4.486649337893656</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-4.102795941575615</v>
+        <v>-4.102795941575617</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.712685732079156</v>
@@ -1306,7 +1306,7 @@
         <v>-3.760876177929265</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.696372039430022</v>
+        <v>-3.696372039430021</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6085397300454545</v>
+        <v>-0.404499810854559</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.845002504751774</v>
+        <v>-4.807791861089823</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.114102274682932</v>
+        <v>-4.880859854353762</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.1128388144488255</v>
+        <v>0.08243893324877445</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.477013305965791</v>
+        <v>-6.390516399713555</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.783115697060709</v>
+        <v>-5.894315005543147</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3299258090595539</v>
+        <v>0.354592709910442</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.15197160860058</v>
+        <v>-5.121833980165095</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.92437956006617</v>
+        <v>-4.935040292985065</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.457517355442563</v>
+        <v>3.494674791551385</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.128407631324597</v>
+        <v>-1.165261489436914</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.504682897448954</v>
+        <v>-1.636338781828056</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.024692627637985</v>
+        <v>3.97695664824819</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-2.712479675891707</v>
+        <v>-2.739286681371602</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-2.570177407961859</v>
+        <v>-2.705045054207109</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.158697661452122</v>
+        <v>3.206394272862877</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.536410691294607</v>
+        <v>-2.443261850888174</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-2.444511253948555</v>
+        <v>-2.560602592407021</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.2780877687694164</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2542960867194972</v>
+        <v>-0.2542960867194973</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.114691067901916</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2518494181474553</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.2475298582947612</v>
+        <v>-0.247529858294761</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.04156896343691789</v>
+        <v>-0.03284313848112359</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3308891961043868</v>
+        <v>-0.3225483187684914</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3420914905813606</v>
+        <v>-0.335690485052933</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.005410278259358405</v>
+        <v>0.005419469631735471</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3721726050065406</v>
+        <v>-0.372410658142922</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3300973903340586</v>
+        <v>-0.3344812390830819</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02210779585535665</v>
+        <v>0.02212801813459365</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3270095096957543</v>
+        <v>-0.3248974917276315</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.312736501373545</v>
+        <v>-0.3132472085876533</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2727174313068623</v>
+        <v>0.2717754094899228</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.0821755259526675</v>
+        <v>-0.08829310556906356</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1198766040709491</v>
+        <v>-0.1286943086042237</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2652454261287923</v>
+        <v>0.2644302259097923</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1745237080966037</v>
+        <v>-0.1799830839395062</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1649959644415195</v>
+        <v>-0.1719370540418483</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2208829314629032</v>
+        <v>0.222746200733559</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1776659366765073</v>
+        <v>-0.1686630418446598</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1748721514265217</v>
+        <v>-0.1774389422380948</v>
       </c>
     </row>
     <row r="28">
